--- a/GolangTrainingMaterial.xlsx
+++ b/GolangTrainingMaterial.xlsx
@@ -3,12 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26111"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{69B93113-A7C0-4710-AA07-959764EA8E83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FCC5B09C-F297-4308-BBC3-80489F3C3281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Golang Data Types" sheetId="2" r:id="rId1"/>
+    <sheet name="Go-C++" sheetId="4" r:id="rId2"/>
+    <sheet name="Go-Java" sheetId="5" r:id="rId3"/>
+    <sheet name="Keywords" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -28,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="169">
   <si>
     <t>Data Types In Golang</t>
   </si>
@@ -199,13 +202,349 @@
   </si>
   <si>
     <t>It is an unsigned integer type. Its width is not defined, but its can hold all the bits of a pointer value.</t>
+  </si>
+  <si>
+    <t>Go vs C++</t>
+  </si>
+  <si>
+    <t>Go</t>
+  </si>
+  <si>
+    <t>C++</t>
+  </si>
+  <si>
+    <t>Go is a procedural and concurrent programming language.</t>
+  </si>
+  <si>
+    <t>C++ is an object-oriented programming language.</t>
+  </si>
+  <si>
+    <t>Go does not contain classes with constructors and deconstructors.</t>
+  </si>
+  <si>
+    <t>C++ does contain classes with constructors and deconstructors.</t>
+  </si>
+  <si>
+    <t>Go language provides automatic garbage collection for allocating memory.</t>
+  </si>
+  <si>
+    <t>C++ language does not provide automatic garbage collection for allocating memory.</t>
+  </si>
+  <si>
+    <t>Go language contains pointers, but does not contain arithmetic pointer.</t>
+  </si>
+  <si>
+    <t>C++ language contains both pointers as well as arithmetic pointers.</t>
+  </si>
+  <si>
+    <t>In Go language, map is passed by reference.</t>
+  </si>
+  <si>
+    <t>In C++, map is passed by value.</t>
+  </si>
+  <si>
+    <t>It does not use header files. Instead of header file, go use packages. It uses import to import external packages.</t>
+  </si>
+  <si>
+    <t>It contain header file and does not contain package.</t>
+  </si>
+  <si>
+    <t>It does not support implicit type conversion.</t>
+  </si>
+  <si>
+    <t>It support implicit type conversion.</t>
+  </si>
+  <si>
+    <t>It does not support function overloading and also does not support user defined operators.</t>
+  </si>
+  <si>
+    <t>It support function overloading and also support user defined operators.</t>
+  </si>
+  <si>
+    <t>It does not support const or volatile qualifiers.</t>
+  </si>
+  <si>
+    <t>It supports const and volatile qualifiers.</t>
+  </si>
+  <si>
+    <t>It provides nil for invalid pointers.</t>
+  </si>
+  <si>
+    <t>It provides NULL or 0 or nullptr for invalid pointers</t>
+  </si>
+  <si>
+    <t>Go use panic and recover for resolving error.</t>
+  </si>
+  <si>
+    <t>C++ use try, catch, and throw for resolving error.</t>
+  </si>
+  <si>
+    <t>It does not have while or do-while statements. But for loop can be used like a while loop.</t>
+  </si>
+  <si>
+    <t>It have while or do-while statements.</t>
+  </si>
+  <si>
+    <t>It is more strong typed as comparison to C++ language.</t>
+  </si>
+  <si>
+    <t>It is less strong typed as compare to Go language.</t>
+  </si>
+  <si>
+    <t>Go contains goroutines and channel.</t>
+  </si>
+  <si>
+    <t>C++ has threads.</t>
+  </si>
+  <si>
+    <t>Go does not support inheritance. But it provides an alternative in the form of Embedding.</t>
+  </si>
+  <si>
+    <t>C++ supports inheritance.</t>
+  </si>
+  <si>
+    <t>Go vs Java</t>
+  </si>
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t>Java is an Object-Oriented programming language.</t>
+  </si>
+  <si>
+    <t>It does not support classes with constructors and deconstructors.</t>
+  </si>
+  <si>
+    <t>It supports classes with constructors and deconstructors.</t>
+  </si>
+  <si>
+    <t>It does not contain the concept of exception handling instead of exception handling Go has errors.</t>
+  </si>
+  <si>
+    <t>It contains the concept of exception handling.</t>
+  </si>
+  <si>
+    <t>It supports implicit type conversion.</t>
+  </si>
+  <si>
+    <t>It does not support inheritance.</t>
+  </si>
+  <si>
+    <t>It supports inheritance.</t>
+  </si>
+  <si>
+    <t>It supports Goroutine.</t>
+  </si>
+  <si>
+    <t>It does not support Goroutines.</t>
+  </si>
+  <si>
+    <t>It does not support function overloading.</t>
+  </si>
+  <si>
+    <t>It supports function overloading.</t>
+  </si>
+  <si>
+    <t>It does not support generics.</t>
+  </si>
+  <si>
+    <t>It supports generics.</t>
+  </si>
+  <si>
+    <t>It support channel.</t>
+  </si>
+  <si>
+    <t>It does not support channel.</t>
+  </si>
+  <si>
+    <t>It does not contain do-while and while statement.</t>
+  </si>
+  <si>
+    <t>It contains do-while and while statement.</t>
+  </si>
+  <si>
+    <t>Go language programs are more compact than Java programs.</t>
+  </si>
+  <si>
+    <t>Java programs are less compact than Go programs.</t>
+  </si>
+  <si>
+    <t>Threads in Go are cheap.</t>
+  </si>
+  <si>
+    <t>Threads in Java are expensive in comparison to Go.</t>
+  </si>
+  <si>
+    <t>Go supports public and private functionalities in different way than Java. Although Go doesn’t support private and public keywords, the first letter of the function name decides if it’s Public(Upper case) or private(lower case).</t>
+  </si>
+  <si>
+    <t>In Java, methods can be public or private.</t>
+  </si>
+  <si>
+    <t>Keywords in Goolang</t>
+  </si>
+  <si>
+    <t>Sl No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyword </t>
+  </si>
+  <si>
+    <t>break</t>
+  </si>
+  <si>
+    <t>Used to break loop Conditionally</t>
+  </si>
+  <si>
+    <t>case</t>
+  </si>
+  <si>
+    <t>Used in switch case/ select case</t>
+  </si>
+  <si>
+    <t>chan</t>
+  </si>
+  <si>
+    <t>Channel for Goroutine communication</t>
+  </si>
+  <si>
+    <t>const</t>
+  </si>
+  <si>
+    <t>Declaring constant</t>
+  </si>
+  <si>
+    <t>continue</t>
+  </si>
+  <si>
+    <t>Used to continue loop</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>Handing all unhandled cases in switch case/ select case</t>
+  </si>
+  <si>
+    <t>defer</t>
+  </si>
+  <si>
+    <t>Executing function with not in current routine context</t>
+  </si>
+  <si>
+    <t>else</t>
+  </si>
+  <si>
+    <t>Part of conditional statement</t>
+  </si>
+  <si>
+    <t>fallthrough</t>
+  </si>
+  <si>
+    <t>Execute remaing cases in switch and select</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>implementing a loop (for)</t>
+  </si>
+  <si>
+    <t>func</t>
+  </si>
+  <si>
+    <t>Defining Function</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>To spawn a routine</t>
+  </si>
+  <si>
+    <t>goto</t>
+  </si>
+  <si>
+    <t>To jump to defined label</t>
+  </si>
+  <si>
+    <t>if</t>
+  </si>
+  <si>
+    <t>Conditional statement</t>
+  </si>
+  <si>
+    <t>import</t>
+  </si>
+  <si>
+    <t>including package in a go file</t>
+  </si>
+  <si>
+    <t>interface</t>
+  </si>
+  <si>
+    <t>Defining Interface</t>
+  </si>
+  <si>
+    <t>map</t>
+  </si>
+  <si>
+    <t xml:space="preserve">delcaing map </t>
+  </si>
+  <si>
+    <t>package</t>
+  </si>
+  <si>
+    <t>defining package name of go file</t>
+  </si>
+  <si>
+    <t>range</t>
+  </si>
+  <si>
+    <t>returns range of selected object (array/slice/map)</t>
+  </si>
+  <si>
+    <t>return</t>
+  </si>
+  <si>
+    <t>return value(s) to calling finction</t>
+  </si>
+  <si>
+    <t>select</t>
+  </si>
+  <si>
+    <t>defining select case</t>
+  </si>
+  <si>
+    <t>struct</t>
+  </si>
+  <si>
+    <t>defining structure</t>
+  </si>
+  <si>
+    <t>switch</t>
+  </si>
+  <si>
+    <t>Implementing switch case (Multiple condition statement)</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>defining new type struct/interface</t>
+  </si>
+  <si>
+    <t>var</t>
+  </si>
+  <si>
+    <t>declaring a variable</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -259,6 +598,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12.5"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12.5"/>
+      <color rgb="FF273239"/>
+      <name val="Urw-Din"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12.5"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="MS Gothic"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -301,13 +669,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -321,22 +686,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -655,16 +1052,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39C81DC8-355D-4041-ABC0-F17698710FD3}">
   <dimension ref="A2:R19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="U9" sqref="U9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="47.28515625" style="1" customWidth="1"/>
     <col min="7" max="7" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
@@ -683,496 +1080,496 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18" ht="21">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
     </row>
     <row r="3" spans="1:18" ht="18.75">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="8" t="s">
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8" t="s">
+      <c r="L3" s="19"/>
+      <c r="M3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="12" t="s">
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="15.75">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9" t="s">
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9" t="s">
+      <c r="H4" s="16"/>
+      <c r="I4" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="9"/>
-      <c r="K4" s="10" t="s">
+      <c r="J4" s="16"/>
+      <c r="K4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="L4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="10" t="s">
+      <c r="M4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="10" t="s">
+      <c r="N4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="10" t="s">
+      <c r="O4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="P4" s="10" t="s">
+      <c r="P4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="Q4" s="10" t="s">
+      <c r="Q4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="R4" s="3"/>
+      <c r="R4" s="2"/>
     </row>
     <row r="5" spans="1:18">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="15"/>
+      <c r="C5" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
+      <c r="D5" s="15"/>
+      <c r="E5" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2" t="s">
+      <c r="F5" s="15"/>
+      <c r="G5" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="3"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="2"/>
     </row>
     <row r="6" spans="1:18">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="3"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="2"/>
     </row>
     <row r="7" spans="1:18" ht="39">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="J7" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
     </row>
     <row r="8" spans="1:18" ht="39">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
     </row>
     <row r="9" spans="1:18" ht="20.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
     </row>
     <row r="10" spans="1:18" ht="20.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
     </row>
     <row r="11" spans="1:18" ht="20.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
     </row>
     <row r="12" spans="1:18" ht="20.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
     </row>
     <row r="13" spans="1:18" ht="20.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
     </row>
     <row r="14" spans="1:18" ht="20.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
     </row>
     <row r="15" spans="1:18" ht="39">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
     </row>
     <row r="16" spans="1:18" ht="39">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
     </row>
     <row r="17" spans="1:18" ht="39">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
     </row>
     <row r="18" spans="1:18" ht="20.25">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
     </row>
     <row r="19" spans="1:18" ht="59.25">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -1200,4 +1597,615 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0C32555-7992-463D-8594-B66F832C55E8}">
+  <dimension ref="B2:C18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="44.28515625" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="3" width="55.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" ht="16.5">
+      <c r="B2" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="20"/>
+    </row>
+    <row r="3" spans="2:3" ht="20.25">
+      <c r="B3" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="39">
+      <c r="B4" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="39">
+      <c r="B5" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="39">
+      <c r="B6" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="39">
+      <c r="B7" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="20.25">
+      <c r="B8" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="30.75" customHeight="1">
+      <c r="B9" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="20.25">
+      <c r="B10" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="39">
+      <c r="B11" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" ht="20.25">
+      <c r="B12" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" ht="20.25">
+      <c r="B13" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" ht="20.25">
+      <c r="B14" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" ht="39">
+      <c r="B15" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" ht="39">
+      <c r="B16" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="20.25">
+      <c r="B17" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="39">
+      <c r="B18" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0B62620-2173-4EB7-8228-7F9152C5D4AA}">
+  <dimension ref="C2:D16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="4" width="63.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:4" ht="20.25" customHeight="1">
+      <c r="C2" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="21"/>
+    </row>
+    <row r="3" spans="3:4" ht="20.25">
+      <c r="C3" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="3:4" ht="39">
+      <c r="C4" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="3:4" ht="39">
+      <c r="C5" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4" ht="39">
+      <c r="C6" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4" ht="20.25">
+      <c r="C7" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4" ht="20.25">
+      <c r="C8" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4" ht="20.25">
+      <c r="C9" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4" ht="20.25">
+      <c r="C10" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4" ht="20.25">
+      <c r="C11" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="3:4" ht="20.25">
+      <c r="C12" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="3:4" ht="20.25">
+      <c r="C13" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="3:4" ht="39">
+      <c r="C14" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="3:4" ht="20.25">
+      <c r="C15" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="3:4" ht="78">
+      <c r="C16" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D7063F1-717D-4D3F-9AC5-AF973563CDBF}">
+  <dimension ref="D4:F30"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="4:6" ht="16.5">
+      <c r="D4" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+    </row>
+    <row r="5" spans="4:6" ht="17.25">
+      <c r="D5" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="4:6" ht="17.25">
+      <c r="D6" s="10">
+        <v>1</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="4:6" ht="17.25">
+      <c r="D7" s="10">
+        <v>2</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="4:6" ht="17.25">
+      <c r="D8" s="10">
+        <v>3</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="4:6" ht="17.25">
+      <c r="D9" s="10">
+        <v>4</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="4:6" ht="17.25">
+      <c r="D10" s="10">
+        <v>5</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="4:6" ht="33.75">
+      <c r="D11" s="10">
+        <v>6</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" spans="4:6" ht="33.75">
+      <c r="D12" s="10">
+        <v>7</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="4:6" ht="17.25">
+      <c r="D13" s="10">
+        <v>8</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="4:6" ht="33.75">
+      <c r="D14" s="10">
+        <v>9</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="15" spans="4:6" ht="17.25">
+      <c r="D15" s="10">
+        <v>10</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16" spans="4:6" ht="17.25">
+      <c r="D16" s="10">
+        <v>11</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6" ht="17.25">
+      <c r="D17" s="10">
+        <v>12</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="18" spans="4:6" ht="17.25">
+      <c r="D18" s="10">
+        <v>13</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6" ht="17.25">
+      <c r="D19" s="10">
+        <v>14</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="20" spans="4:6" ht="17.25">
+      <c r="D20" s="10">
+        <v>15</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="21" spans="4:6" ht="17.25">
+      <c r="D21" s="10">
+        <v>16</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="22" spans="4:6" ht="17.25">
+      <c r="D22" s="10">
+        <v>17</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="23" spans="4:6" ht="17.25">
+      <c r="D23" s="10">
+        <v>18</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="24" spans="4:6" ht="33.75">
+      <c r="D24" s="10">
+        <v>19</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="25" spans="4:6" ht="17.25">
+      <c r="D25" s="10">
+        <v>20</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="26" spans="4:6" ht="17.25">
+      <c r="D26" s="10">
+        <v>21</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="27" spans="4:6" ht="17.25">
+      <c r="D27" s="10">
+        <v>22</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="28" spans="4:6" ht="33.75">
+      <c r="D28" s="10">
+        <v>23</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="29" spans="4:6" ht="17.25">
+      <c r="D29" s="10">
+        <v>24</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="30" spans="4:6" ht="17.25">
+      <c r="D30" s="10">
+        <v>25</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>168</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D4:F4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>